--- a/data/ISLA.xlsx
+++ b/data/ISLA.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -371,6 +371,21 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>Corequisites</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Concurrent</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Recommended</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>Terms Typically Offered</t>
         </is>
       </c>
@@ -393,6 +408,21 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -410,10 +440,25 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ES 112, ISLA 123, RELS 201, or WGS 201.</t>
+          <t>ES 112, ISLA 123, RELS 201, or WGS 201.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>W, SP</t>
         </is>
@@ -432,12 +477,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Completion of GE C3. Recommended: TH 210.</t>
+          <t>Completion of GE C3.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>F, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>TH 210.</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, SP </t>
         </is>
       </c>
     </row>
@@ -459,6 +519,21 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -476,12 +551,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Junior standing; completion of GE Area A with grades of C- or better; completion of GE Area B1 with a grade of C- or better in at least one of the courses; and completion of GE Areas B2, B3, and B4. Recommended: ISLA 123.</t>
+          <t>Junior standing; completion of GE Area A with grades of C- or better; completion of GE Area B1 with a grade of C- or better in at least one of the courses; and completion of GE Areas B2, B3, and B4.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>ISLA 123.</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">W </t>
         </is>
       </c>
     </row>
@@ -498,12 +588,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Junior standing; completion of GE Area A with grades of C- or better; completion of one course in GE Area B1 with a grade of C- or better; and one lower-division course in GE Area D. Recommended: GE Area D2 or D3.</t>
+          <t>Junior standing; completion of GE Area A with grades of C- or better; completion of one course in GE Area B1 with a grade of C- or better; and one lower-division course in GE Area D.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>GE Area D2 or D3.</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TBD </t>
         </is>
       </c>
     </row>
@@ -520,12 +625,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Junior standing; enrollment in London Study program; completion of GE Area A with grades of C- or better; completion of one course in GE Area B1 with a grade of C- or better; and one lower-division course in GE Area D. Corequisite: ISLA 319.</t>
+          <t>Junior standing; enrollment in London Study program; completion of GE Area A with grades of C- or better; completion of one course in GE Area B1 with a grade of C- or better; and one lower-division course in GE Area D.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SU</t>
+          <t>ISLA 319.</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SU </t>
         </is>
       </c>
     </row>
@@ -547,6 +667,21 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>SU</t>
         </is>
       </c>
@@ -564,12 +699,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Junior standing; completion of GE Area A with grades of C- or better; completion of one course in GE Area B1 with a grade of C- or better; and completion of GE Area C1, C2, or C3. Recommended: Completion of GE Area C1 or C3.</t>
+          <t>Junior standing; completion of GE Area A with grades of C- or better; completion of one course in GE Area B1 with a grade of C- or better; and completion of GE Area C1, C2, or C3.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>W, SP, SU</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Completion of GE Area C1 or C3.</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">W, SP, SU </t>
         </is>
       </c>
     </row>
@@ -591,6 +741,21 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -608,10 +773,25 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ISLA 240 or the completion of an ART or TH course in GE Area C3.</t>
+          <t>ISLA 240 or the completion of an ART or TH course in GE Area C3.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -630,10 +810,25 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ISLA 340.</t>
+          <t>ISLA 340.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>W, SP</t>
         </is>
@@ -657,6 +852,21 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -674,12 +884,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ISLA 201. Recommended: STAT 130, STAT 217, STAT 218, or STAT 251.</t>
+          <t>ISLA 201.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>STAT 130, STAT 217, STAT 218, or STAT 251.</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F </t>
         </is>
       </c>
     </row>
@@ -696,10 +921,25 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Junior standing; completion of GE Area A with grades of C- or better; completion of GE Area D3; and one of the following: ANT 201, ANT 202, ANT 250, ISLA 123, any ES course, any WGS course.</t>
+          <t>Junior standing; completion of GE Area A with grades of C- or better; completion of GE Area D3; and one of the ANT 201, ANT 202, ANT 250, ISLA 123, any ES course, any WGS course.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -723,6 +963,21 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -740,12 +995,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ISLA 201. Recommended: ISLA 355.</t>
+          <t>ISLA 201.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>ISLA 355.</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">W, SP </t>
         </is>
       </c>
     </row>
@@ -767,6 +1037,21 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>SU</t>
         </is>
       </c>
@@ -784,10 +1069,25 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ISLA 123; completion of GE area A with grades of C- or better; completion of GE Area B2 or B3; junior standing; and minor in one of the following: Ethics, Public Policy, Science and Technology; Gender, Race, Culture, Science, and Technology; Media Arts, Society and Technology; or Science and Risk Communication.</t>
+          <t>ISLA 123; completion of GE area A with grades of C- or better; completion of GE Area B2 or B3; junior standing; and minor in one of the Ethics, Public Policy, Science and Technology; Gender, Race, Culture, Science, and Technology; Media Arts, Society and Technology; or Science and Risk Communication.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -806,10 +1106,25 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Senior standing; and ISLA 355.</t>
+          <t>Senior standing; and ISLA 355.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
         <is>
           <t>W, SP</t>
         </is>
@@ -832,6 +1147,21 @@
         </is>
       </c>
       <c r="D22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
